--- a/Escenarios.xlsx
+++ b/Escenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teclo.lozano\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestProyects\Proyects\UnitTestingWebAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="190">
   <si>
     <t>Mobile</t>
   </si>
@@ -423,12 +423,6 @@
     <t>(not estimated)</t>
   </si>
   <si>
-    <t>Notify about my exiting account</t>
-  </si>
-  <si>
-    <t>Forgot Password - Get &amp; Reset Password</t>
-  </si>
-  <si>
     <t>Preferred Location</t>
   </si>
   <si>
@@ -458,13 +452,7 @@
     </r>
   </si>
   <si>
-    <t>Show a list of Countries, States and Cities to select.</t>
-  </si>
-  <si>
     <t>Show details and select restaurant</t>
-  </si>
-  <si>
-    <t>Search Item</t>
   </si>
   <si>
     <t>Global Menu:</t>
@@ -1079,6 +1067,18 @@
   </si>
   <si>
     <t>Notification of the confirmation, ready, in conflict, delivered and other order status changes.</t>
+  </si>
+  <si>
+    <t>Notify about my exiting account (not estimated)</t>
+  </si>
+  <si>
+    <t>Forgot Password - Get &amp; Reset Password(not estimated)</t>
+  </si>
+  <si>
+    <t>Show a list of Countries, States and Cities to select.(not estimated)</t>
+  </si>
+  <si>
+    <t>Search Item(not estimated)</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1257,12 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1314,6 +1308,15 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,40 +1780,40 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -1908,7 +1911,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1958,52 +1961,52 @@
         <v>18</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="11"/>
       <c r="E46">
         <v>1</v>
       </c>
@@ -2011,7 +2014,7 @@
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="D47" s="13"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -2043,141 +2046,141 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="11" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2191,276 +2194,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y61"/>
+  <dimension ref="A2:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>62</v>
+      <c r="C6" s="6"/>
+      <c r="D6" s="29" t="s">
+        <v>186</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="D10" t="s">
-        <v>66</v>
+      <c r="B10" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="14" t="s">
-        <v>67</v>
+      <c r="B11" s="3"/>
+      <c r="D11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>3</v>
+      <c r="D12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="B13" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2477,7 +2493,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2487,7 +2503,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="17"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2495,7 +2511,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2513,7 +2529,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2531,7 +2547,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2547,8 +2563,9 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2558,69 +2575,82 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>61</v>
@@ -2628,79 +2658,55 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
+      <c r="D33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2722,7 +2728,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2745,7 +2751,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2764,90 +2770,93 @@
       <c r="S40" s="5"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="M41" s="20"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B43" s="3"/>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
+      <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B46" s="3"/>
-      <c r="D46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
       <c r="D48" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2859,19 +2868,23 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2880,20 +2893,13 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2905,18 +2911,18 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2928,18 +2934,18 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="8"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2951,41 +2957,41 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9" t="s">
-        <v>107</v>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2997,54 +3003,70 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9" t="s">
-        <v>110</v>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -3052,42 +3074,72 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="L57" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B58" s="3"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="D59" t="s">
-        <v>112</v>
-      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="L59" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="B60" s="3"/>
-      <c r="D60" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="D62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="D63" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3115,57 +3167,57 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>121</v>
+      <c r="C8" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
-        <v>122</v>
+      <c r="C9" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="25" t="s">
-        <v>124</v>
+      <c r="C11" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3181,8 +3233,8 @@
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
-        <v>125</v>
+      <c r="C12" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3198,8 +3250,8 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>126</v>
+      <c r="C13" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>61</v>
@@ -3207,21 +3259,21 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="C15" s="14" t="s">
-        <v>127</v>
+      <c r="C15" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>61</v>
@@ -3229,18 +3281,18 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="14" t="s">
-        <v>130</v>
+      <c r="C18" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3248,61 +3300,61 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="C24" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>61</v>
@@ -3311,7 +3363,7 @@
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>61</v>
@@ -3319,36 +3371,36 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="10"/>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3374,94 +3426,94 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>3</v>
@@ -3470,18 +3522,18 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>3</v>
@@ -3490,13 +3542,13 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -3504,7 +3556,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3515,7 +3567,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3534,9 +3586,9 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -3548,41 +3600,41 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="19"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3598,7 +3650,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3608,13 +3660,13 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="28"/>
+      <c r="L33" s="26"/>
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3629,7 +3681,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3643,13 +3695,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3663,29 +3715,29 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3699,17 +3751,17 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
